--- a/第一问数据/上海数据_v2.xlsx
+++ b/第一问数据/上海数据_v2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suibe\Desktop\深圳杯\数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-2019-2\深圳杯\第一问数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7544105-D91D-414F-B6AF-34B36553A168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
     <sheet name="指标" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="73">
   <si>
     <t>指标：年末常住人口(万人)</t>
   </si>
@@ -287,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,13 +847,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,7 +866,7 @@
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{0F8CC90C-3775-44CD-960F-CA28428D3BAF}"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AN15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1152,9 +1151,9 @@
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:40" x14ac:dyDescent="0.25">
@@ -1165,7 +1164,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:40" s="11" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2491,26 +2490,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5B2838-F950-4996-9357-F64108908A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:S15"/>
+      <selection activeCell="S14" sqref="S14:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" customWidth="1"/>
-    <col min="18" max="18" width="15.453125" customWidth="1"/>
-    <col min="21" max="21" width="11.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
       <c r="B2" s="30" t="s">
         <v>33</v>
@@ -2521,7 +2520,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:21" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="36" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A3" s="32"/>
       <c r="B3" s="33" t="s">
         <v>35</v>
@@ -2556,7 +2555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A4" s="32"/>
       <c r="B4" s="37" t="s">
         <v>41</v>
@@ -2568,11 +2567,11 @@
       <c r="E4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="38" t="s">
         <v>45</v>
       </c>
@@ -2588,22 +2587,22 @@
       <c r="M4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87" t="s">
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="87"/>
+      <c r="T4" s="89"/>
       <c r="U4" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="47" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
         <v>53</v>
@@ -2666,7 +2665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="27"/>
       <c r="B6" s="48"/>
       <c r="C6" s="49" t="s">
@@ -2693,7 +2692,7 @@
       </c>
       <c r="U6" s="55"/>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
       <c r="B7" s="48"/>
       <c r="C7" s="49" t="s">
@@ -2744,7 +2743,10 @@
       <c r="R7" s="79">
         <v>5.4610592478158679E-2</v>
       </c>
-      <c r="S7" s="72"/>
+      <c r="S7" s="72">
+        <f t="shared" ref="S7:S12" si="0">S8+0.1</f>
+        <v>80.959999999999965</v>
+      </c>
       <c r="T7" s="72">
         <v>5.3</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
       <c r="B8" s="48"/>
       <c r="C8" s="49" t="s">
@@ -2803,7 +2805,10 @@
       <c r="R8" s="79">
         <v>5.5369753170283316E-2</v>
       </c>
-      <c r="S8" s="72"/>
+      <c r="S8" s="72">
+        <f t="shared" si="0"/>
+        <v>80.859999999999971</v>
+      </c>
       <c r="T8" s="72">
         <v>5</v>
       </c>
@@ -2811,7 +2816,7 @@
         <v>2.5326446280991735</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
@@ -2862,7 +2867,10 @@
       <c r="R9" s="79">
         <v>4.9011880689196256E-2</v>
       </c>
-      <c r="S9" s="72"/>
+      <c r="S9" s="72">
+        <f t="shared" si="0"/>
+        <v>80.759999999999977</v>
+      </c>
       <c r="T9" s="72">
         <v>5.07</v>
       </c>
@@ -2870,7 +2878,7 @@
         <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="27"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -2921,7 +2929,10 @@
       <c r="R10" s="79">
         <v>5.3773377963375203E-2</v>
       </c>
-      <c r="S10" s="72"/>
+      <c r="S10" s="72">
+        <f t="shared" si="0"/>
+        <v>80.659999999999982</v>
+      </c>
       <c r="T10" s="72">
         <v>5.21</v>
       </c>
@@ -2929,7 +2940,7 @@
         <v>1.5704863973619125</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
@@ -2980,7 +2991,10 @@
       <c r="R11" s="79">
         <v>4.7458270860153556E-2</v>
       </c>
-      <c r="S11" s="72"/>
+      <c r="S11" s="72">
+        <f t="shared" si="0"/>
+        <v>80.559999999999988</v>
+      </c>
       <c r="T11" s="72">
         <v>5.24</v>
       </c>
@@ -2988,7 +3002,7 @@
         <v>1.3383022774327122</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="27"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
@@ -3039,7 +3053,10 @@
       <c r="R12" s="79">
         <v>4.7165166514500402E-2</v>
       </c>
-      <c r="S12" s="72"/>
+      <c r="S12" s="72">
+        <f t="shared" si="0"/>
+        <v>80.459999999999994</v>
+      </c>
       <c r="T12" s="72">
         <v>5.36</v>
       </c>
@@ -3047,7 +3064,7 @@
         <v>1.4563025210084033</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
@@ -3098,7 +3115,10 @@
       <c r="R13" s="79">
         <v>4.854044057544548E-2</v>
       </c>
-      <c r="S13" s="72"/>
+      <c r="S13" s="72">
+        <f>S14+0.1</f>
+        <v>80.36</v>
+      </c>
       <c r="T13" s="72">
         <v>5.0999999999999996</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>1.4946740519812527</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
@@ -3167,7 +3187,7 @@
         <v>1.2696482848458532</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60" t="s">
@@ -3214,7 +3234,9 @@
       <c r="R15" s="80">
         <v>4.4436639740437843E-2</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15" s="72">
+        <v>80.260000000000005</v>
+      </c>
       <c r="T15" s="76">
         <v>5.94</v>
       </c>
@@ -3222,13 +3244,13 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="F16" s="63"/>
       <c r="I16" s="64"/>
       <c r="L16" s="65"/>
     </row>
-    <row r="17" spans="1:21" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27"/>
       <c r="B17" s="30" t="s">
         <v>72</v>
@@ -3237,7 +3259,7 @@
       <c r="I17" s="64"/>
       <c r="L17" s="65"/>
     </row>
-    <row r="18" spans="1:21" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" s="36" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A18" s="32"/>
       <c r="B18" s="33" t="s">
         <v>35</v>
@@ -3264,15 +3286,15 @@
       <c r="P18" s="86"/>
       <c r="Q18" s="86"/>
       <c r="R18" s="86"/>
-      <c r="S18" s="88" t="s">
+      <c r="S18" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="89"/>
+      <c r="T18" s="88"/>
       <c r="U18" s="66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" s="40" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A19" s="32"/>
       <c r="B19" s="37" t="s">
         <v>41</v>
@@ -3284,11 +3306,11 @@
       <c r="E19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="38" t="s">
         <v>45</v>
       </c>
@@ -3304,13 +3326,13 @@
       <c r="M19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
       <c r="S19" s="90" t="s">
         <v>51</v>
       </c>
@@ -3319,7 +3341,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="47" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="42" t="s">
         <v>53</v>
@@ -3382,7 +3404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
@@ -3415,7 +3437,7 @@
       </c>
       <c r="U21" s="69"/>
     </row>
-    <row r="22" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
@@ -3430,430 +3452,430 @@
         <v>0.18163340385562626</v>
       </c>
       <c r="F22" s="53">
-        <f t="shared" ref="F22:U22" si="0">(F7-F8)/F8</f>
+        <f t="shared" ref="F22:U22" si="1">(F7-F8)/F8</f>
         <v>1.2953367875647668E-2</v>
       </c>
       <c r="G22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9105107141572716E-2</v>
       </c>
       <c r="H22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8803454264494335E-4</v>
       </c>
       <c r="I22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0369908134748715E-2</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6217942910375899E-2</v>
       </c>
       <c r="L22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11054457323380509</v>
       </c>
       <c r="M22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.7619098452884716E-2</v>
       </c>
       <c r="N22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.636657814926064E-2</v>
       </c>
       <c r="O22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2712985938779575E-4</v>
       </c>
       <c r="P22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9689060441748652E-2</v>
       </c>
       <c r="Q22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2657365937102329E-2</v>
       </c>
       <c r="R22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3710747270083102E-2</v>
       </c>
       <c r="S22" s="53"/>
       <c r="T22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9999999999999963E-2</v>
       </c>
       <c r="U22" s="84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.633708598466308E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
       <c r="B23" s="48"/>
       <c r="C23" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="53">
-        <f t="shared" ref="D23:I23" si="1">(D8-D9)/D9</f>
+        <f t="shared" ref="D23:I23" si="2">(D8-D9)/D9</f>
         <v>-0.14492753623188406</v>
       </c>
       <c r="E23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4249264123174259E-2</v>
       </c>
       <c r="F23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5974025974026343E-3</v>
       </c>
       <c r="G23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6927281816235628E-3</v>
       </c>
       <c r="H23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6376892577987874E-3</v>
       </c>
       <c r="I23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2359899336480836</v>
       </c>
       <c r="J23" s="53"/>
       <c r="K23" s="53">
-        <f t="shared" ref="K23:R23" si="2">(K8-K9)/K9</f>
+        <f t="shared" ref="K23:R23" si="3">(K8-K9)/K9</f>
         <v>9.3587708136455526E-3</v>
       </c>
       <c r="L23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.4894777134915764E-2</v>
       </c>
       <c r="M23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4039215048565021E-2</v>
       </c>
       <c r="N23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0661157024794183E-3</v>
       </c>
       <c r="O23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3374655647383015E-2</v>
       </c>
       <c r="P23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5454545454545352E-2</v>
       </c>
       <c r="Q23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9943467843971329E-2</v>
       </c>
       <c r="R23" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12972104705397547</v>
       </c>
       <c r="S23" s="53"/>
       <c r="T23" s="53">
-        <f t="shared" ref="T23:U23" si="3">(T8-T9)/T9</f>
+        <f t="shared" ref="T23:U23" si="4">(T8-T9)/T9</f>
         <v>-1.3806706114398477E-2</v>
       </c>
       <c r="U23" s="84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2853670393777389E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="53">
-        <f t="shared" ref="D24:I24" si="4">(D9-D10)/D10</f>
+        <f t="shared" ref="D24:I24" si="5">(D9-D10)/D10</f>
         <v>-2.8169014084507043E-2</v>
       </c>
       <c r="E24" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.24637061821156E-2</v>
       </c>
       <c r="F24" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6041666666667038E-3</v>
       </c>
       <c r="G24" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7341562199920509E-2</v>
       </c>
       <c r="H24" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2779670939033849E-3</v>
       </c>
       <c r="I24" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3806840412600305E-2</v>
       </c>
       <c r="J24" s="53"/>
       <c r="K24" s="53">
-        <f t="shared" ref="K24:R24" si="5">(K9-K10)/K10</f>
+        <f t="shared" ref="K24:R24" si="6">(K9-K10)/K10</f>
         <v>1.8065483936260663E-2</v>
       </c>
       <c r="L24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5336246403100577E-2</v>
       </c>
       <c r="M24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2671007781754531E-2</v>
       </c>
       <c r="N24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1004655892645415E-2</v>
       </c>
       <c r="O24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5548654244305844E-3</v>
       </c>
       <c r="P24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1284476591686027E-2</v>
       </c>
       <c r="Q24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9866701907404908E-2</v>
       </c>
       <c r="R24" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.8547483057917251E-2</v>
       </c>
       <c r="S24" s="53"/>
       <c r="T24" s="53">
-        <f t="shared" ref="T24:U24" si="6">(T9-T10)/T10</f>
+        <f t="shared" ref="T24:U24" si="7">(T9-T10)/T10</f>
         <v>-2.6871401151631415E-2</v>
       </c>
       <c r="U24" s="84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54638170228721405</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="53">
-        <f t="shared" ref="D25:I25" si="7">(D10-D11)/D11</f>
+        <f t="shared" ref="D25:I25" si="8">(D10-D11)/D11</f>
         <v>-0.13414634146341464</v>
       </c>
       <c r="E25" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.17598457189965855</v>
       </c>
       <c r="F25" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G25" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6777913446379603E-3</v>
       </c>
       <c r="H25" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.3332319445230091E-2</v>
       </c>
       <c r="I25" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1300073437403175E-4</v>
       </c>
       <c r="J25" s="53"/>
       <c r="K25" s="53">
-        <f t="shared" ref="K25:R25" si="8">(K10-K11)/K11</f>
+        <f t="shared" ref="K25:R25" si="9">(K10-K11)/K11</f>
         <v>1.3534535169063699E-2</v>
       </c>
       <c r="L25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5784276289373889E-2</v>
       </c>
       <c r="M25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.3139146829952812E-3</v>
       </c>
       <c r="N25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5736425084508944E-3</v>
       </c>
       <c r="O25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.5342126957954917E-3</v>
       </c>
       <c r="P25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9821360258561096E-2</v>
       </c>
       <c r="Q25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.333534565392845E-2</v>
       </c>
       <c r="R25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13306652325851751</v>
       </c>
       <c r="S25" s="53"/>
       <c r="T25" s="53">
-        <f t="shared" ref="T25:U25" si="9">(T10-T11)/T11</f>
+        <f t="shared" ref="T25:U25" si="10">(T10-T11)/T11</f>
         <v>-5.7251908396947033E-3</v>
       </c>
       <c r="U25" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17349153763274094</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="53">
-        <f t="shared" ref="D26:I26" si="10">(D11-D12)/D12</f>
+        <f t="shared" ref="D26:I26" si="11">(D11-D12)/D12</f>
         <v>0.15492957746478872</v>
       </c>
       <c r="E26" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1658974981782994E-2</v>
       </c>
       <c r="F26" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6109660574412906E-3</v>
       </c>
       <c r="G26" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.3699269527876879E-2</v>
       </c>
       <c r="H26" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.2679559273990688E-2</v>
       </c>
       <c r="I26" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.7760632250516214E-2</v>
       </c>
       <c r="J26" s="53"/>
       <c r="K26" s="53">
-        <f t="shared" ref="K26:R26" si="11">(K11-K12)/K12</f>
+        <f t="shared" ref="K26:R26" si="12">(K11-K12)/K12</f>
         <v>-8.8577754862974277E-3</v>
       </c>
       <c r="L26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.232883035086645E-2</v>
       </c>
       <c r="M26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.6482352271512605E-2</v>
       </c>
       <c r="N26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5934401220443198E-3</v>
       </c>
       <c r="O26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.347826086956523E-2</v>
       </c>
       <c r="P26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.7518189484418917E-2</v>
       </c>
       <c r="Q26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5896887621762753E-2</v>
       </c>
       <c r="R26" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.2144240615167263E-3</v>
       </c>
       <c r="S26" s="53"/>
       <c r="T26" s="53">
-        <f t="shared" ref="T26:U26" si="12">(T11-T12)/T12</f>
+        <f t="shared" ref="T26:U26" si="13">(T11-T12)/T12</f>
         <v>-2.2388059701492557E-2</v>
       </c>
       <c r="U26" s="84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.1027287856360278E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="53">
-        <f t="shared" ref="D27:I27" si="13">(D12-D13)/D13</f>
+        <f t="shared" ref="D27:I27" si="14">(D12-D13)/D13</f>
         <v>-0.1125</v>
       </c>
       <c r="E27" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9435637891519792E-3</v>
       </c>
       <c r="F27" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6178010471202698E-3</v>
       </c>
       <c r="G27" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4546129163029336E-3</v>
       </c>
       <c r="H27" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.3927260224478079E-2</v>
       </c>
       <c r="I27" s="53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7080126403785565E-2</v>
       </c>
       <c r="J27" s="53"/>
       <c r="K27" s="53">
-        <f t="shared" ref="K27:R27" si="14">(K12-K13)/K13</f>
+        <f t="shared" ref="K27:R27" si="15">(K12-K13)/K13</f>
         <v>-5.6448887311095083E-2</v>
       </c>
       <c r="L27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.11159669095148686</v>
       </c>
       <c r="M27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.381129447414602E-2</v>
       </c>
       <c r="N27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9792043399638263E-3</v>
       </c>
       <c r="O27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.3865546218487401E-2</v>
       </c>
       <c r="P27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.5896746758404763E-2</v>
       </c>
       <c r="Q27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0994986229786145E-2</v>
       </c>
       <c r="R27" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.8332541786626676E-2</v>
       </c>
       <c r="S27" s="53"/>
       <c r="T27" s="53">
-        <f t="shared" ref="T27:U27" si="15">(T12-T13)/T13</f>
+        <f t="shared" ref="T27:U27" si="16">(T12-T13)/T13</f>
         <v>5.0980392156862883E-2</v>
       </c>
       <c r="U27" s="84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.5672173088163493E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="27"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
@@ -3861,69 +3883,69 @@
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="53">
-        <f t="shared" ref="E28:I28" si="16">(E13-E14)/E14</f>
+        <f t="shared" ref="E28:I28" si="17">(E13-E14)/E14</f>
         <v>-5.628159189384898E-2</v>
       </c>
       <c r="F28" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G28" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-7.7268374919765869E-4</v>
       </c>
       <c r="H28" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-6.0759150342833426E-2</v>
       </c>
       <c r="I28" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-3.8983515440538595E-2</v>
       </c>
       <c r="J28" s="53"/>
       <c r="K28" s="53">
-        <f t="shared" ref="K28:R28" si="17">(K13-K14)/K14</f>
+        <f t="shared" ref="K28:R28" si="18">(K13-K14)/K14</f>
         <v>-4.0690229562214797E-2</v>
       </c>
       <c r="L28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4.2178124275047239E-2</v>
       </c>
       <c r="M28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.8999884297716079E-2</v>
       </c>
       <c r="N28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.2077820200338917E-2</v>
       </c>
       <c r="O28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.874733702599064E-2</v>
       </c>
       <c r="P28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.0185972315325593E-3</v>
       </c>
       <c r="Q28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7.4593677293943527E-5</v>
       </c>
       <c r="R28" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.585155071113378E-3</v>
       </c>
       <c r="S28" s="53"/>
       <c r="T28" s="53">
-        <f t="shared" ref="T28:U28" si="18">(T13-T14)/T14</f>
+        <f t="shared" ref="T28:U28" si="19">(T13-T14)/T14</f>
         <v>5.9171597633134827E-3</v>
       </c>
       <c r="U28" s="84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.17723472698797024</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="27"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
@@ -3931,69 +3953,69 @@
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53">
-        <f t="shared" ref="E29:I29" si="19">(E14-E15)/E15</f>
+        <f t="shared" ref="E29:I29" si="20">(E14-E15)/E15</f>
         <v>-1.0647471454869009E-2</v>
       </c>
       <c r="F29" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6246719160105359E-3</v>
       </c>
       <c r="G29" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.4113699280924475E-2</v>
       </c>
       <c r="H29" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.656797503761538E-2</v>
       </c>
       <c r="I29" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.7520821900633432E-2</v>
       </c>
       <c r="J29" s="53"/>
       <c r="K29" s="53">
-        <f t="shared" ref="K29:R29" si="20">(K14-K15)/K15</f>
+        <f t="shared" ref="K29:R29" si="21">(K14-K15)/K15</f>
         <v>-1.2673263160261208E-2</v>
       </c>
       <c r="L29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.767453366017397E-2</v>
       </c>
       <c r="M29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.8645619681115663E-2</v>
       </c>
       <c r="N29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.297780823998332E-2</v>
       </c>
       <c r="O29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-4.0382110290924943E-2</v>
       </c>
       <c r="P29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-9.3101454885978138E-3</v>
       </c>
       <c r="Q29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.1593181629125236E-2</v>
       </c>
       <c r="R29" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.0622929824029461E-2</v>
       </c>
       <c r="S29" s="53"/>
       <c r="T29" s="53">
-        <f t="shared" ref="T29:U29" si="21">(T14-T15)/T15</f>
+        <f t="shared" ref="T29:U29" si="22">(T14-T15)/T15</f>
         <v>-0.14646464646464646</v>
       </c>
       <c r="U29" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.86199475164718986</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="27"/>
       <c r="B30" s="59"/>
       <c r="C30" s="60" t="s">
@@ -4018,20 +4040,27 @@
       <c r="T30" s="61"/>
       <c r="U30" s="85"/>
     </row>
-    <row r="31" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="27"/>
     </row>
-    <row r="32" spans="1:21" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="27"/>
     </row>
-    <row r="33" spans="1:1" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="27"/>
     </row>
-    <row r="34" spans="1:1" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="M18:R18"/>
@@ -4039,13 +4068,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="N19:R19"/>
     <mergeCell ref="S19:T19"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
